--- a/ValueSet-medication-vs.xlsx
+++ b/ValueSet-medication-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T10:36:37+00:00</t>
+    <t>2025-10-30T10:02:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-medication-vs.xlsx
+++ b/ValueSet-medication-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T10:02:42+00:00</t>
+    <t>2025-10-30T10:05:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -119,10 +119,10 @@
     <t>Anticoagulant (substance)</t>
   </si>
   <si>
-    <t>1237404009</t>
-  </si>
-  <si>
-    <t>Uses hormone method of contraception (finding)</t>
+    <t>312263009</t>
+  </si>
+  <si>
+    <t>Sex hormone (substance)</t>
   </si>
   <si>
     <t>372912004</t>

--- a/ValueSet-medication-vs.xlsx
+++ b/ValueSet-medication-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T10:05:12+00:00</t>
+    <t>2025-10-30T11:02:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-medication-vs.xlsx
+++ b/ValueSet-medication-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T11:02:24+00:00</t>
+    <t>2025-10-31T12:12:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-medication-vs.xlsx
+++ b/ValueSet-medication-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-31T12:12:50+00:00</t>
+    <t>2025-11-03T16:51:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-medication-vs.xlsx
+++ b/ValueSet-medication-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T10:45:59+00:00</t>
+    <t>2025-11-18T10:58:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-medication-vs.xlsx
+++ b/ValueSet-medication-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T10:58:35+00:00</t>
+    <t>2025-11-18T11:10:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-medication-vs.xlsx
+++ b/ValueSet-medication-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T11:10:00+00:00</t>
+    <t>2025-11-18T11:17:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-medication-vs.xlsx
+++ b/ValueSet-medication-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T11:17:36+00:00</t>
+    <t>2025-11-18T11:44:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-medication-vs.xlsx
+++ b/ValueSet-medication-vs.xlsx
@@ -9,13 +9,12 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include #0" r:id="rId4" sheetId="2"/>
     <sheet name="Include #1" r:id="rId5" sheetId="3"/>
-    <sheet name="Include ValueSet #2" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
   <si>
     <t>Property</t>
   </si>
@@ -59,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T11:44:59+00:00</t>
+    <t>2025-11-18T11:54:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -162,12 +161,6 @@
   </si>
   <si>
     <t>http://tecnomod-um.org/CodeSystem/medication-cs</t>
-  </si>
-  <si>
-    <t>ValueSet URL</t>
-  </si>
-  <si>
-    <t>https://hl7.org/fhir/uv/ips/ValueSet-absent-or-unknown-medications-uv-ips.html</t>
   </si>
 </sst>
 </file>
@@ -576,31 +569,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
 </file>
--- a/ValueSet-medication-vs.xlsx
+++ b/ValueSet-medication-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T11:54:03+00:00</t>
+    <t>2025-11-19T08:51:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-medication-vs.xlsx
+++ b/ValueSet-medication-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T08:51:11+00:00</t>
+    <t>2025-11-19T08:58:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-medication-vs.xlsx
+++ b/ValueSet-medication-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T08:58:25+00:00</t>
+    <t>2025-11-19T09:26:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-medication-vs.xlsx
+++ b/ValueSet-medication-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T09:26:24+00:00</t>
+    <t>2025-11-19T10:08:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
